--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021-11/基本面分析0.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/2021-11/基本面分析0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -3438,14 +3438,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.00_);\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd"/>
-    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -3540,14 +3540,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3561,32 +3561,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3613,9 +3614,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3639,21 +3640,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3668,7 +3655,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3676,17 +3677,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3759,7 +3759,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3771,7 +3789,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3783,151 +3921,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3972,8 +3972,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3982,7 +3982,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4020,197 +4061,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4229,14 +4229,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4244,14 +4244,14 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4286,205 +4286,205 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7523,11 +7523,11 @@
   <dimension ref="A1:BQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AY7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AT4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BF8" sqref="BF8"/>
+      <selection pane="bottomRight" activeCell="AW2" sqref="AW2:AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07352941176471" defaultRowHeight="14.8"/>
